--- a/biology/Médecine/Champmaillot/Champmaillot.xlsx
+++ b/biology/Médecine/Champmaillot/Champmaillot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Champmaillot est un ancien quartier de Dijon qui a donné son nom à l'Hôpital de Champmaillot, ou Centre gériatrique de Champmaillot , un ses sites du Centre hospitalier universitaire de Dijon.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre gériatrique compte  plusieurs services
 Un service de Gériatrie Ambulatoire comportant l'hôpital de jour gériatrique, les consultations gériatriques, l'Équipe Mobile de Gériatrie (EMG) et l'Unité de Coordination en Oncogériatrie de Bourgogne (UCOGB)
@@ -552,6 +566,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -577,7 +593,9 @@
           <t>Site</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est un parc arboré soigneusement entretenu. Une statue du sculpteur dijonnais Paul Gasq, La Bonté y a été installée en 2009.
 </t>
